--- a/2023-05/202305/01_基本設計書/01_基本設計書/バージョン２/【倉庫】基本設計書 - 張秋実　訂正.xlsx
+++ b/2023-05/202305/01_基本設計書/01_基本設計書/バージョン２/【倉庫】基本設計書 - 張秋実　訂正.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\2023-05-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\202305\01_基本設計書\01_基本設計書\バージョン２\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F336742A-DDFC-4194-826D-D50D63668928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCD3154-C79D-42F9-94F1-D807726ED803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
   <si>
     <t>基本設計書</t>
   </si>
@@ -703,6 +703,16 @@
     </rPh>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>訂正</t>
+    <rPh sb="0" eb="2">
+      <t>ﾃｲｾｲ</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1469,6 +1479,57 @@
     <xf numFmtId="181" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1487,56 +1548,14 @@
     <xf numFmtId="183" fontId="3" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1551,30 +1570,75 @@
     <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1593,51 +1657,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1685,15 +1704,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3944,8 +3954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24:AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -4204,72 +4214,72 @@
     </row>
     <row r="4" spans="1:176" ht="12.75" customHeight="1">
       <c r="A4" s="26"/>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
       <c r="AF4" s="43"/>
     </row>
     <row r="5" spans="1:176" ht="12.75" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="136"/>
-      <c r="W5" s="136"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="136"/>
-      <c r="AB5" s="136"/>
-      <c r="AC5" s="136"/>
-      <c r="AD5" s="136"/>
-      <c r="AE5" s="136"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="133"/>
+      <c r="AB5" s="133"/>
+      <c r="AC5" s="133"/>
+      <c r="AD5" s="133"/>
+      <c r="AE5" s="133"/>
       <c r="AF5" s="43"/>
     </row>
     <row r="6" spans="1:176" ht="12.75" customHeight="1">
@@ -4441,122 +4451,122 @@
     </row>
     <row r="11" spans="1:176" ht="12">
       <c r="A11" s="26"/>
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="147" t="s">
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="147" t="s">
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="148"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="149"/>
-      <c r="AB11" s="147" t="s">
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="145"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="145"/>
+      <c r="Z11" s="145"/>
+      <c r="AA11" s="146"/>
+      <c r="AB11" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="149"/>
-      <c r="AD11" s="147" t="s">
+      <c r="AC11" s="146"/>
+      <c r="AD11" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="149"/>
+      <c r="AE11" s="146"/>
       <c r="AF11" s="55"/>
     </row>
     <row r="12" spans="1:176" ht="12">
       <c r="A12" s="26"/>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="143" t="s">
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="138"/>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="138"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="143" t="s">
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="136"/>
+      <c r="AB12" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="144"/>
-      <c r="AD12" s="137" t="s">
+      <c r="AC12" s="141"/>
+      <c r="AD12" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="AE12" s="139"/>
+      <c r="AE12" s="136"/>
       <c r="AF12" s="55"/>
     </row>
     <row r="13" spans="1:176" ht="12">
       <c r="A13" s="26"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="142"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="141"/>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="141"/>
-      <c r="AA13" s="142"/>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="142"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="138"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="138"/>
+      <c r="X13" s="138"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="138"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="143"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="139"/>
       <c r="AF13" s="55"/>
     </row>
     <row r="14" spans="1:176" ht="12.75" customHeight="1">
@@ -4857,630 +4867,638 @@
     </row>
     <row r="23" spans="1:32" ht="12.75" customHeight="1">
       <c r="A23" s="26"/>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="130" t="s">
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="130" t="s">
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="131"/>
-      <c r="V23" s="131"/>
-      <c r="W23" s="131"/>
-      <c r="X23" s="131"/>
-      <c r="Y23" s="131"/>
-      <c r="Z23" s="131"/>
-      <c r="AA23" s="131"/>
-      <c r="AB23" s="132"/>
-      <c r="AC23" s="130" t="s">
+      <c r="K23" s="148"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="148"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="148"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="148"/>
+      <c r="X23" s="148"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="148"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="AD23" s="131"/>
-      <c r="AE23" s="132"/>
+      <c r="AD23" s="148"/>
+      <c r="AE23" s="149"/>
       <c r="AF23" s="43"/>
     </row>
     <row r="24" spans="1:32" ht="12.75" customHeight="1">
       <c r="A24" s="26"/>
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="133">
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="150">
         <v>45047</v>
       </c>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="130" t="s">
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="131"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="131"/>
-      <c r="Y24" s="131"/>
-      <c r="Z24" s="131"/>
-      <c r="AA24" s="131"/>
-      <c r="AB24" s="132"/>
-      <c r="AC24" s="130" t="s">
+      <c r="K24" s="148"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="148"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="148"/>
+      <c r="X24" s="148"/>
+      <c r="Y24" s="148"/>
+      <c r="Z24" s="148"/>
+      <c r="AA24" s="148"/>
+      <c r="AB24" s="149"/>
+      <c r="AC24" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="AD24" s="131"/>
-      <c r="AE24" s="132"/>
+      <c r="AD24" s="148"/>
+      <c r="AE24" s="149"/>
       <c r="AF24" s="43"/>
     </row>
     <row r="25" spans="1:32" ht="12.75" customHeight="1">
       <c r="A25" s="26"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="131"/>
-      <c r="AB25" s="132"/>
-      <c r="AC25" s="130"/>
-      <c r="AD25" s="131"/>
-      <c r="AE25" s="132"/>
+      <c r="B25" s="147" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="150">
+        <v>45048</v>
+      </c>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="148"/>
+      <c r="S25" s="148"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="148"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="148"/>
+      <c r="X25" s="148"/>
+      <c r="Y25" s="148"/>
+      <c r="Z25" s="148"/>
+      <c r="AA25" s="148"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="147" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD25" s="148"/>
+      <c r="AE25" s="149"/>
       <c r="AF25" s="43"/>
     </row>
     <row r="26" spans="1:32" ht="12.75" customHeight="1">
       <c r="A26" s="26"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="130"/>
-      <c r="AD26" s="131"/>
-      <c r="AE26" s="132"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="148"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="148"/>
+      <c r="T26" s="148"/>
+      <c r="U26" s="148"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="148"/>
+      <c r="X26" s="148"/>
+      <c r="Y26" s="148"/>
+      <c r="Z26" s="148"/>
+      <c r="AA26" s="148"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="147"/>
+      <c r="AD26" s="148"/>
+      <c r="AE26" s="149"/>
       <c r="AF26" s="43"/>
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="26"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="131"/>
-      <c r="Y27" s="131"/>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="131"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="130"/>
-      <c r="AD27" s="131"/>
-      <c r="AE27" s="132"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="148"/>
+      <c r="S27" s="148"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="148"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="148"/>
+      <c r="X27" s="148"/>
+      <c r="Y27" s="148"/>
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="148"/>
+      <c r="AB27" s="149"/>
+      <c r="AC27" s="147"/>
+      <c r="AD27" s="148"/>
+      <c r="AE27" s="149"/>
       <c r="AF27" s="43"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="26"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="131"/>
-      <c r="S28" s="131"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="131"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="131"/>
-      <c r="X28" s="131"/>
-      <c r="Y28" s="131"/>
-      <c r="Z28" s="131"/>
-      <c r="AA28" s="131"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="130"/>
-      <c r="AD28" s="131"/>
-      <c r="AE28" s="132"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="148"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="148"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="148"/>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="148"/>
+      <c r="Z28" s="148"/>
+      <c r="AA28" s="148"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="147"/>
+      <c r="AD28" s="148"/>
+      <c r="AE28" s="149"/>
       <c r="AF28" s="43"/>
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="26"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="131"/>
-      <c r="S29" s="131"/>
-      <c r="T29" s="131"/>
-      <c r="U29" s="131"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="131"/>
-      <c r="X29" s="131"/>
-      <c r="Y29" s="131"/>
-      <c r="Z29" s="131"/>
-      <c r="AA29" s="131"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="130"/>
-      <c r="AD29" s="131"/>
-      <c r="AE29" s="132"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+      <c r="N29" s="148"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="148"/>
+      <c r="S29" s="148"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="148"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="148"/>
+      <c r="Y29" s="148"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="149"/>
+      <c r="AC29" s="147"/>
+      <c r="AD29" s="148"/>
+      <c r="AE29" s="149"/>
       <c r="AF29" s="43"/>
     </row>
     <row r="30" spans="1:32" ht="12.75" customHeight="1">
       <c r="A30" s="26"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="131"/>
-      <c r="S30" s="131"/>
-      <c r="T30" s="131"/>
-      <c r="U30" s="131"/>
-      <c r="V30" s="131"/>
-      <c r="W30" s="131"/>
-      <c r="X30" s="131"/>
-      <c r="Y30" s="131"/>
-      <c r="Z30" s="131"/>
-      <c r="AA30" s="131"/>
-      <c r="AB30" s="132"/>
-      <c r="AC30" s="130"/>
-      <c r="AD30" s="131"/>
-      <c r="AE30" s="132"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+      <c r="N30" s="148"/>
+      <c r="O30" s="148"/>
+      <c r="P30" s="148"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="148"/>
+      <c r="S30" s="148"/>
+      <c r="T30" s="148"/>
+      <c r="U30" s="148"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="148"/>
+      <c r="X30" s="148"/>
+      <c r="Y30" s="148"/>
+      <c r="Z30" s="148"/>
+      <c r="AA30" s="148"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="147"/>
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="149"/>
       <c r="AF30" s="43"/>
     </row>
     <row r="31" spans="1:32" ht="12.75" customHeight="1">
       <c r="A31" s="26"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="131"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="131"/>
-      <c r="U31" s="131"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="131"/>
-      <c r="Y31" s="131"/>
-      <c r="Z31" s="131"/>
-      <c r="AA31" s="131"/>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="130"/>
-      <c r="AD31" s="131"/>
-      <c r="AE31" s="132"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+      <c r="N31" s="148"/>
+      <c r="O31" s="148"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="148"/>
+      <c r="S31" s="148"/>
+      <c r="T31" s="148"/>
+      <c r="U31" s="148"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="148"/>
+      <c r="X31" s="148"/>
+      <c r="Y31" s="148"/>
+      <c r="Z31" s="148"/>
+      <c r="AA31" s="148"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="147"/>
+      <c r="AD31" s="148"/>
+      <c r="AE31" s="149"/>
       <c r="AF31" s="43"/>
     </row>
     <row r="32" spans="1:32" ht="12.75" customHeight="1">
       <c r="A32" s="26"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="131"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="131"/>
-      <c r="X32" s="131"/>
-      <c r="Y32" s="131"/>
-      <c r="Z32" s="131"/>
-      <c r="AA32" s="131"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="130"/>
-      <c r="AD32" s="131"/>
-      <c r="AE32" s="132"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="148"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="148"/>
+      <c r="Y32" s="148"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="149"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="149"/>
       <c r="AF32" s="43"/>
     </row>
     <row r="33" spans="1:32" ht="12.75" customHeight="1">
       <c r="A33" s="26"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="131"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="131"/>
-      <c r="AB33" s="132"/>
-      <c r="AC33" s="130"/>
-      <c r="AD33" s="131"/>
-      <c r="AE33" s="132"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="148"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="148"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="148"/>
+      <c r="X33" s="148"/>
+      <c r="Y33" s="148"/>
+      <c r="Z33" s="148"/>
+      <c r="AA33" s="148"/>
+      <c r="AB33" s="149"/>
+      <c r="AC33" s="147"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="149"/>
       <c r="AF33" s="43"/>
     </row>
     <row r="34" spans="1:32" ht="12.75" customHeight="1">
       <c r="A34" s="26"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="131"/>
-      <c r="L34" s="131"/>
-      <c r="M34" s="131"/>
-      <c r="N34" s="131"/>
-      <c r="O34" s="131"/>
-      <c r="P34" s="131"/>
-      <c r="Q34" s="131"/>
-      <c r="R34" s="131"/>
-      <c r="S34" s="131"/>
-      <c r="T34" s="131"/>
-      <c r="U34" s="131"/>
-      <c r="V34" s="131"/>
-      <c r="W34" s="131"/>
-      <c r="X34" s="131"/>
-      <c r="Y34" s="131"/>
-      <c r="Z34" s="131"/>
-      <c r="AA34" s="131"/>
-      <c r="AB34" s="132"/>
-      <c r="AC34" s="130"/>
-      <c r="AD34" s="131"/>
-      <c r="AE34" s="132"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="148"/>
+      <c r="P34" s="148"/>
+      <c r="Q34" s="148"/>
+      <c r="R34" s="148"/>
+      <c r="S34" s="148"/>
+      <c r="T34" s="148"/>
+      <c r="U34" s="148"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="148"/>
+      <c r="X34" s="148"/>
+      <c r="Y34" s="148"/>
+      <c r="Z34" s="148"/>
+      <c r="AA34" s="148"/>
+      <c r="AB34" s="149"/>
+      <c r="AC34" s="147"/>
+      <c r="AD34" s="148"/>
+      <c r="AE34" s="149"/>
       <c r="AF34" s="43"/>
     </row>
     <row r="35" spans="1:32" ht="12.75" customHeight="1">
       <c r="A35" s="26"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="131"/>
-      <c r="O35" s="131"/>
-      <c r="P35" s="131"/>
-      <c r="Q35" s="131"/>
-      <c r="R35" s="131"/>
-      <c r="S35" s="131"/>
-      <c r="T35" s="131"/>
-      <c r="U35" s="131"/>
-      <c r="V35" s="131"/>
-      <c r="W35" s="131"/>
-      <c r="X35" s="131"/>
-      <c r="Y35" s="131"/>
-      <c r="Z35" s="131"/>
-      <c r="AA35" s="131"/>
-      <c r="AB35" s="132"/>
-      <c r="AC35" s="130"/>
-      <c r="AD35" s="131"/>
-      <c r="AE35" s="132"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
+      <c r="N35" s="148"/>
+      <c r="O35" s="148"/>
+      <c r="P35" s="148"/>
+      <c r="Q35" s="148"/>
+      <c r="R35" s="148"/>
+      <c r="S35" s="148"/>
+      <c r="T35" s="148"/>
+      <c r="U35" s="148"/>
+      <c r="V35" s="148"/>
+      <c r="W35" s="148"/>
+      <c r="X35" s="148"/>
+      <c r="Y35" s="148"/>
+      <c r="Z35" s="148"/>
+      <c r="AA35" s="148"/>
+      <c r="AB35" s="149"/>
+      <c r="AC35" s="147"/>
+      <c r="AD35" s="148"/>
+      <c r="AE35" s="149"/>
       <c r="AF35" s="43"/>
     </row>
     <row r="36" spans="1:32" ht="12.75" customHeight="1">
       <c r="A36" s="26"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="131"/>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="131"/>
-      <c r="R36" s="131"/>
-      <c r="S36" s="131"/>
-      <c r="T36" s="131"/>
-      <c r="U36" s="131"/>
-      <c r="V36" s="131"/>
-      <c r="W36" s="131"/>
-      <c r="X36" s="131"/>
-      <c r="Y36" s="131"/>
-      <c r="Z36" s="131"/>
-      <c r="AA36" s="131"/>
-      <c r="AB36" s="132"/>
-      <c r="AC36" s="130"/>
-      <c r="AD36" s="131"/>
-      <c r="AE36" s="132"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
+      <c r="N36" s="148"/>
+      <c r="O36" s="148"/>
+      <c r="P36" s="148"/>
+      <c r="Q36" s="148"/>
+      <c r="R36" s="148"/>
+      <c r="S36" s="148"/>
+      <c r="T36" s="148"/>
+      <c r="U36" s="148"/>
+      <c r="V36" s="148"/>
+      <c r="W36" s="148"/>
+      <c r="X36" s="148"/>
+      <c r="Y36" s="148"/>
+      <c r="Z36" s="148"/>
+      <c r="AA36" s="148"/>
+      <c r="AB36" s="149"/>
+      <c r="AC36" s="147"/>
+      <c r="AD36" s="148"/>
+      <c r="AE36" s="149"/>
       <c r="AF36" s="43"/>
     </row>
     <row r="37" spans="1:32" ht="12.75" customHeight="1">
       <c r="A37" s="26"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="131"/>
-      <c r="O37" s="131"/>
-      <c r="P37" s="131"/>
-      <c r="Q37" s="131"/>
-      <c r="R37" s="131"/>
-      <c r="S37" s="131"/>
-      <c r="T37" s="131"/>
-      <c r="U37" s="131"/>
-      <c r="V37" s="131"/>
-      <c r="W37" s="131"/>
-      <c r="X37" s="131"/>
-      <c r="Y37" s="131"/>
-      <c r="Z37" s="131"/>
-      <c r="AA37" s="131"/>
-      <c r="AB37" s="132"/>
-      <c r="AC37" s="130"/>
-      <c r="AD37" s="131"/>
-      <c r="AE37" s="132"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+      <c r="N37" s="148"/>
+      <c r="O37" s="148"/>
+      <c r="P37" s="148"/>
+      <c r="Q37" s="148"/>
+      <c r="R37" s="148"/>
+      <c r="S37" s="148"/>
+      <c r="T37" s="148"/>
+      <c r="U37" s="148"/>
+      <c r="V37" s="148"/>
+      <c r="W37" s="148"/>
+      <c r="X37" s="148"/>
+      <c r="Y37" s="148"/>
+      <c r="Z37" s="148"/>
+      <c r="AA37" s="148"/>
+      <c r="AB37" s="149"/>
+      <c r="AC37" s="147"/>
+      <c r="AD37" s="148"/>
+      <c r="AE37" s="149"/>
       <c r="AF37" s="43"/>
     </row>
     <row r="38" spans="1:32" ht="12.75" customHeight="1">
       <c r="A38" s="26"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="135"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="131"/>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="131"/>
-      <c r="R38" s="131"/>
-      <c r="S38" s="131"/>
-      <c r="T38" s="131"/>
-      <c r="U38" s="131"/>
-      <c r="V38" s="131"/>
-      <c r="W38" s="131"/>
-      <c r="X38" s="131"/>
-      <c r="Y38" s="131"/>
-      <c r="Z38" s="131"/>
-      <c r="AA38" s="131"/>
-      <c r="AB38" s="132"/>
-      <c r="AC38" s="130"/>
-      <c r="AD38" s="131"/>
-      <c r="AE38" s="132"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
+      <c r="N38" s="148"/>
+      <c r="O38" s="148"/>
+      <c r="P38" s="148"/>
+      <c r="Q38" s="148"/>
+      <c r="R38" s="148"/>
+      <c r="S38" s="148"/>
+      <c r="T38" s="148"/>
+      <c r="U38" s="148"/>
+      <c r="V38" s="148"/>
+      <c r="W38" s="148"/>
+      <c r="X38" s="148"/>
+      <c r="Y38" s="148"/>
+      <c r="Z38" s="148"/>
+      <c r="AA38" s="148"/>
+      <c r="AB38" s="149"/>
+      <c r="AC38" s="147"/>
+      <c r="AD38" s="148"/>
+      <c r="AE38" s="149"/>
       <c r="AF38" s="43"/>
     </row>
     <row r="39" spans="1:32" ht="12.75" customHeight="1">
       <c r="A39" s="26"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="135"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
-      <c r="O39" s="131"/>
-      <c r="P39" s="131"/>
-      <c r="Q39" s="131"/>
-      <c r="R39" s="131"/>
-      <c r="S39" s="131"/>
-      <c r="T39" s="131"/>
-      <c r="U39" s="131"/>
-      <c r="V39" s="131"/>
-      <c r="W39" s="131"/>
-      <c r="X39" s="131"/>
-      <c r="Y39" s="131"/>
-      <c r="Z39" s="131"/>
-      <c r="AA39" s="131"/>
-      <c r="AB39" s="132"/>
-      <c r="AC39" s="130"/>
-      <c r="AD39" s="131"/>
-      <c r="AE39" s="132"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="147"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
+      <c r="N39" s="148"/>
+      <c r="O39" s="148"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="148"/>
+      <c r="R39" s="148"/>
+      <c r="S39" s="148"/>
+      <c r="T39" s="148"/>
+      <c r="U39" s="148"/>
+      <c r="V39" s="148"/>
+      <c r="W39" s="148"/>
+      <c r="X39" s="148"/>
+      <c r="Y39" s="148"/>
+      <c r="Z39" s="148"/>
+      <c r="AA39" s="148"/>
+      <c r="AB39" s="149"/>
+      <c r="AC39" s="147"/>
+      <c r="AD39" s="148"/>
+      <c r="AE39" s="149"/>
       <c r="AF39" s="43"/>
     </row>
     <row r="40" spans="1:32" ht="12.75" customHeight="1">
       <c r="A40" s="26"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131"/>
-      <c r="O40" s="131"/>
-      <c r="P40" s="131"/>
-      <c r="Q40" s="131"/>
-      <c r="R40" s="131"/>
-      <c r="S40" s="131"/>
-      <c r="T40" s="131"/>
-      <c r="U40" s="131"/>
-      <c r="V40" s="131"/>
-      <c r="W40" s="131"/>
-      <c r="X40" s="131"/>
-      <c r="Y40" s="131"/>
-      <c r="Z40" s="131"/>
-      <c r="AA40" s="131"/>
-      <c r="AB40" s="132"/>
-      <c r="AC40" s="130"/>
-      <c r="AD40" s="131"/>
-      <c r="AE40" s="132"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="148"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
+      <c r="N40" s="148"/>
+      <c r="O40" s="148"/>
+      <c r="P40" s="148"/>
+      <c r="Q40" s="148"/>
+      <c r="R40" s="148"/>
+      <c r="S40" s="148"/>
+      <c r="T40" s="148"/>
+      <c r="U40" s="148"/>
+      <c r="V40" s="148"/>
+      <c r="W40" s="148"/>
+      <c r="X40" s="148"/>
+      <c r="Y40" s="148"/>
+      <c r="Z40" s="148"/>
+      <c r="AA40" s="148"/>
+      <c r="AB40" s="149"/>
+      <c r="AC40" s="147"/>
+      <c r="AD40" s="148"/>
+      <c r="AE40" s="149"/>
       <c r="AF40" s="43"/>
     </row>
     <row r="41" spans="1:32" ht="12.75" customHeight="1">
@@ -5519,6 +5537,78 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
     <mergeCell ref="B4:AE5"/>
     <mergeCell ref="G12:L13"/>
     <mergeCell ref="AB12:AC13"/>
@@ -5530,78 +5620,6 @@
     <mergeCell ref="M11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5632,172 +5650,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="150"/>
-      <c r="AD1" s="150"/>
-      <c r="AE1" s="150"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="150"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="155"/>
+      <c r="AB1" s="155"/>
+      <c r="AC1" s="155"/>
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="155"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="147" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="147" t="s">
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="149"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="146"/>
       <c r="AD2" s="38" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="39"/>
-      <c r="AF2" s="147" t="s">
+      <c r="AF2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="149"/>
+      <c r="AG2" s="146"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="137" t="str">
+      <c r="A3" s="134" t="str">
         <f>表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="137">
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="134">
         <f>表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="143" t="str">
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="140" t="str">
         <f>表紙!M12</f>
         <v xml:space="preserve">在庫登録（画面）/　在庫更新（画面）
 </v>
       </c>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="151"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="151"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="137" t="str">
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="153"/>
+      <c r="U3" s="153"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="153"/>
+      <c r="X3" s="153"/>
+      <c r="Y3" s="153"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="134" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="137" t="str">
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="134" t="str">
         <f>表紙!AD12</f>
         <v>張</v>
       </c>
-      <c r="AG3" s="139"/>
+      <c r="AG3" s="136"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="140"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="152"/>
-      <c r="X4" s="152"/>
-      <c r="Y4" s="152"/>
-      <c r="Z4" s="152"/>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="146"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="142"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="142"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="154"/>
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="139"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="139"/>
     </row>
     <row r="5" spans="1:177" s="18" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="21"/>
@@ -7237,16 +7255,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7278,172 +7296,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="150"/>
-      <c r="AD1" s="150"/>
-      <c r="AE1" s="150"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="150"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="155"/>
+      <c r="AB1" s="155"/>
+      <c r="AC1" s="155"/>
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="155"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="147" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="147" t="s">
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="149"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="146"/>
       <c r="AD2" s="38" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="39"/>
-      <c r="AF2" s="147" t="s">
+      <c r="AF2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="149"/>
+      <c r="AG2" s="146"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="137" t="str">
+      <c r="A3" s="134" t="str">
         <f>表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="137">
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="134">
         <f>表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="143" t="str">
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="140" t="str">
         <f>表紙!M12</f>
         <v xml:space="preserve">在庫登録（画面）/　在庫更新（画面）
 </v>
       </c>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="151"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="151"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="137" t="str">
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="153"/>
+      <c r="U3" s="153"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="153"/>
+      <c r="X3" s="153"/>
+      <c r="Y3" s="153"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="134" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="137" t="str">
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="134" t="str">
         <f>表紙!AD12</f>
         <v>張</v>
       </c>
-      <c r="AG3" s="139"/>
+      <c r="AG3" s="136"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="140"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="152"/>
-      <c r="X4" s="152"/>
-      <c r="Y4" s="152"/>
-      <c r="Z4" s="152"/>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="146"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="142"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="142"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="154"/>
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="139"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="139"/>
     </row>
     <row r="5" spans="1:177" s="18" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="21"/>
@@ -7906,43 +7924,43 @@
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="26"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="154"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="154"/>
-      <c r="AA14" s="154"/>
-      <c r="AB14" s="154"/>
-      <c r="AC14" s="154"/>
-      <c r="AD14" s="154"/>
-      <c r="AE14" s="154"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="157"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="157"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="157"/>
+      <c r="U14" s="157"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="157"/>
+      <c r="X14" s="157"/>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="157"/>
+      <c r="AA14" s="157"/>
+      <c r="AB14" s="157"/>
+      <c r="AC14" s="157"/>
+      <c r="AD14" s="157"/>
+      <c r="AE14" s="157"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="43"/>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="26"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -7960,14 +7978,14 @@
       <c r="N15" s="34"/>
       <c r="O15" s="35"/>
       <c r="P15" s="27"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="157"/>
-      <c r="W15" s="157"/>
-      <c r="X15" s="157"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="159"/>
+      <c r="T15" s="159"/>
+      <c r="U15" s="159"/>
+      <c r="V15" s="160"/>
+      <c r="W15" s="160"/>
+      <c r="X15" s="160"/>
       <c r="Y15" s="28"/>
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
@@ -8982,11 +9000,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="Y14:AE14"/>
@@ -9000,11 +9018,11 @@
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="S14:U14"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9036,172 +9054,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="172"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="173" t="s">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="173" t="s">
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="175"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="180"/>
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="181"/>
       <c r="AD2" s="59" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="60"/>
-      <c r="AF2" s="173" t="s">
+      <c r="AF2" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="175"/>
+      <c r="AG2" s="181"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="160" t="str">
+      <c r="A3" s="174" t="str">
         <f>表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="160">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="174">
         <f>表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="166" t="str">
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="184" t="str">
         <f>表紙!M12</f>
         <v xml:space="preserve">在庫登録（画面）/　在庫更新（画面）
 </v>
       </c>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="160" t="str">
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
+      <c r="U3" s="185"/>
+      <c r="V3" s="185"/>
+      <c r="W3" s="185"/>
+      <c r="X3" s="185"/>
+      <c r="Y3" s="185"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="185"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="186"/>
+      <c r="AD3" s="174" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="160" t="str">
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="174" t="str">
         <f>表紙!AD12</f>
         <v>張</v>
       </c>
-      <c r="AG3" s="162"/>
+      <c r="AG3" s="175"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="163"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="170"/>
-      <c r="V4" s="170"/>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="170"/>
-      <c r="AA4" s="170"/>
-      <c r="AB4" s="170"/>
-      <c r="AC4" s="171"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="165"/>
+      <c r="A4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="188"/>
+      <c r="R4" s="188"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="188"/>
+      <c r="U4" s="188"/>
+      <c r="V4" s="188"/>
+      <c r="W4" s="188"/>
+      <c r="X4" s="188"/>
+      <c r="Y4" s="188"/>
+      <c r="Z4" s="188"/>
+      <c r="AA4" s="188"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="189"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="177"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="177"/>
     </row>
     <row r="5" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="61"/>
@@ -9529,15 +9547,15 @@
       <c r="U9" s="80"/>
       <c r="V9" s="80"/>
       <c r="W9" s="73"/>
-      <c r="X9" s="158" t="s">
+      <c r="X9" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="158"/>
+      <c r="Y9" s="168"/>
       <c r="Z9" s="73"/>
-      <c r="AA9" s="158" t="s">
+      <c r="AA9" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="159"/>
+      <c r="AB9" s="166"/>
       <c r="AC9" s="73"/>
       <c r="AD9" s="73"/>
       <c r="AE9" s="73"/>
@@ -9616,15 +9634,15 @@
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="72"/>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="166"/>
       <c r="D12" s="73"/>
-      <c r="E12" s="158" t="s">
+      <c r="E12" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="159"/>
+      <c r="F12" s="166"/>
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
       <c r="I12" s="73"/>
@@ -9690,62 +9708,62 @@
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="72"/>
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="159" t="s">
+      <c r="C14" s="167"/>
+      <c r="D14" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159" t="s">
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159" t="s">
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159" t="s">
+      <c r="K14" s="166"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159" t="s">
+      <c r="N14" s="166"/>
+      <c r="O14" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="184" t="s">
+      <c r="P14" s="166"/>
+      <c r="Q14" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="184"/>
-      <c r="S14" s="184"/>
-      <c r="T14" s="184"/>
-      <c r="U14" s="177"/>
-      <c r="V14" s="183" t="s">
+      <c r="R14" s="163"/>
+      <c r="S14" s="163"/>
+      <c r="T14" s="163"/>
+      <c r="U14" s="167"/>
+      <c r="V14" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="184"/>
-      <c r="X14" s="184"/>
-      <c r="Y14" s="184"/>
-      <c r="Z14" s="184"/>
-      <c r="AA14" s="185" t="s">
+      <c r="W14" s="163"/>
+      <c r="X14" s="163"/>
+      <c r="Y14" s="163"/>
+      <c r="Z14" s="163"/>
+      <c r="AA14" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="AB14" s="186"/>
-      <c r="AC14" s="186"/>
-      <c r="AD14" s="186"/>
+      <c r="AB14" s="165"/>
+      <c r="AC14" s="165"/>
+      <c r="AD14" s="165"/>
       <c r="AE14" s="91"/>
       <c r="AG14" s="92"/>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="72"/>
-      <c r="B15" s="176" t="s">
+      <c r="B15" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="177"/>
+      <c r="C15" s="167"/>
       <c r="D15" s="74" t="s">
         <v>102</v>
       </c>
@@ -9761,21 +9779,21 @@
       </c>
       <c r="K15" s="75"/>
       <c r="L15" s="76"/>
-      <c r="M15" s="180">
+      <c r="M15" s="172">
         <v>666</v>
       </c>
-      <c r="N15" s="181"/>
-      <c r="O15" s="178" t="s">
+      <c r="N15" s="173"/>
+      <c r="O15" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="179"/>
-      <c r="Q15" s="184" t="s">
+      <c r="P15" s="171"/>
+      <c r="Q15" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="184"/>
-      <c r="S15" s="184"/>
-      <c r="T15" s="184"/>
-      <c r="U15" s="177"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="163"/>
+      <c r="T15" s="163"/>
+      <c r="U15" s="167"/>
       <c r="V15" s="94" t="s">
         <v>33</v>
       </c>
@@ -9789,10 +9807,10 @@
       <c r="AB15" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="AC15" s="182" t="s">
+      <c r="AC15" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="AD15" s="182"/>
+      <c r="AD15" s="161"/>
       <c r="AE15" s="95" t="s">
         <v>34</v>
       </c>
@@ -10751,12 +10769,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B15:C15"/>
@@ -10767,18 +10791,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="Q15:U15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -10794,7 +10812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
     </sheetView>
@@ -10809,172 +10827,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="172"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="173" t="s">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="173" t="s">
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="175"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="180"/>
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="181"/>
       <c r="AD2" s="59" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="60"/>
-      <c r="AF2" s="173" t="s">
+      <c r="AF2" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="175"/>
+      <c r="AG2" s="181"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="160" t="str">
+      <c r="A3" s="174" t="str">
         <f>表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="160">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="174">
         <f>表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="166" t="str">
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="184" t="str">
         <f>表紙!M12</f>
         <v xml:space="preserve">在庫登録（画面）/　在庫更新（画面）
 </v>
       </c>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="160" t="str">
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
+      <c r="U3" s="185"/>
+      <c r="V3" s="185"/>
+      <c r="W3" s="185"/>
+      <c r="X3" s="185"/>
+      <c r="Y3" s="185"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="185"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="186"/>
+      <c r="AD3" s="174" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="160" t="str">
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="174" t="str">
         <f>表紙!AD12</f>
         <v>張</v>
       </c>
-      <c r="AG3" s="162"/>
+      <c r="AG3" s="175"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="163"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="170"/>
-      <c r="V4" s="170"/>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="170"/>
-      <c r="AA4" s="170"/>
-      <c r="AB4" s="170"/>
-      <c r="AC4" s="171"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="165"/>
+      <c r="A4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="188"/>
+      <c r="R4" s="188"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="188"/>
+      <c r="U4" s="188"/>
+      <c r="V4" s="188"/>
+      <c r="W4" s="188"/>
+      <c r="X4" s="188"/>
+      <c r="Y4" s="188"/>
+      <c r="Z4" s="188"/>
+      <c r="AA4" s="188"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="189"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="177"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="177"/>
     </row>
     <row r="5" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="61"/>
@@ -11282,11 +11300,11 @@
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="F9" s="78"/>
-      <c r="G9" s="189" t="s">
+      <c r="G9" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="K9" s="74" t="s">
         <v>87</v>
       </c>
@@ -11371,11 +11389,11 @@
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="F11" s="78"/>
-      <c r="G11" s="187" t="s">
+      <c r="G11" s="190" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="191"/>
       <c r="K11" s="74" t="s">
         <v>89</v>
       </c>
@@ -11561,7 +11579,7 @@
         <v>93</v>
       </c>
       <c r="J15" s="124"/>
-      <c r="K15" s="205"/>
+      <c r="K15" s="132"/>
       <c r="L15" s="128" t="s">
         <v>129</v>
       </c>
@@ -11983,7 +12001,7 @@
       <c r="AE24" s="73"/>
       <c r="AF24" s="80"/>
       <c r="AG24" s="77"/>
-      <c r="AH24" s="203"/>
+      <c r="AH24" s="130"/>
       <c r="AQ24" s="117"/>
       <c r="AR24" s="117"/>
       <c r="AS24" s="117"/>
@@ -12187,12 +12205,12 @@
       <c r="AE29" s="73"/>
       <c r="AF29" s="80"/>
       <c r="AG29" s="77"/>
-      <c r="AH29" s="203"/>
-      <c r="AI29" s="204"/>
-      <c r="AJ29" s="204"/>
-      <c r="AK29" s="204"/>
-      <c r="AL29" s="204"/>
-      <c r="AM29" s="204"/>
+      <c r="AH29" s="130"/>
+      <c r="AI29" s="131"/>
+      <c r="AJ29" s="131"/>
+      <c r="AK29" s="131"/>
+      <c r="AL29" s="131"/>
+      <c r="AM29" s="131"/>
       <c r="AN29" s="119"/>
       <c r="AO29" s="119"/>
       <c r="AP29" s="119"/>
@@ -12863,6 +12881,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="AD3:AE4"/>
@@ -12870,11 +12893,6 @@
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -12906,172 +12924,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="172"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="173" t="s">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="173" t="s">
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="175"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="180"/>
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="181"/>
       <c r="AD2" s="59" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="60"/>
-      <c r="AF2" s="173" t="s">
+      <c r="AF2" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="175"/>
+      <c r="AG2" s="181"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="160" t="str">
+      <c r="A3" s="174" t="str">
         <f>表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="160">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="174">
         <f>表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="166" t="str">
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="184" t="str">
         <f>表紙!M12</f>
         <v xml:space="preserve">在庫登録（画面）/　在庫更新（画面）
 </v>
       </c>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="160" t="str">
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
+      <c r="U3" s="185"/>
+      <c r="V3" s="185"/>
+      <c r="W3" s="185"/>
+      <c r="X3" s="185"/>
+      <c r="Y3" s="185"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="185"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="186"/>
+      <c r="AD3" s="174" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="160" t="str">
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="174" t="str">
         <f>表紙!AD12</f>
         <v>張</v>
       </c>
-      <c r="AG3" s="162"/>
+      <c r="AG3" s="175"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="163"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="170"/>
-      <c r="V4" s="170"/>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="170"/>
-      <c r="AA4" s="170"/>
-      <c r="AB4" s="170"/>
-      <c r="AC4" s="171"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="165"/>
+      <c r="A4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="188"/>
+      <c r="R4" s="188"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="188"/>
+      <c r="U4" s="188"/>
+      <c r="V4" s="188"/>
+      <c r="W4" s="188"/>
+      <c r="X4" s="188"/>
+      <c r="Y4" s="188"/>
+      <c r="Z4" s="188"/>
+      <c r="AA4" s="188"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="189"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="177"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="177"/>
     </row>
     <row r="5" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="61"/>
@@ -13319,12 +13337,12 @@
       </c>
       <c r="W7" s="73"/>
       <c r="X7" s="73"/>
-      <c r="Y7" s="180">
+      <c r="Y7" s="172">
         <v>666</v>
       </c>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="192"/>
+      <c r="Z7" s="194"/>
+      <c r="AA7" s="194"/>
+      <c r="AB7" s="195"/>
       <c r="AC7" s="73"/>
       <c r="AD7" s="73"/>
       <c r="AE7" s="73"/>
@@ -13398,15 +13416,15 @@
         <v>76</v>
       </c>
       <c r="W9" s="73"/>
-      <c r="X9" s="158" t="s">
+      <c r="X9" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="158"/>
+      <c r="Y9" s="168"/>
       <c r="Z9" s="73"/>
-      <c r="AA9" s="158" t="s">
+      <c r="AA9" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="159"/>
+      <c r="AB9" s="166"/>
       <c r="AC9" s="73"/>
       <c r="AD9" s="73"/>
       <c r="AE9" s="73"/>
@@ -13485,10 +13503,10 @@
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="72"/>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="166"/>
       <c r="D12" s="73"/>
       <c r="E12" s="56"/>
       <c r="F12" s="73"/>
@@ -13557,44 +13575,44 @@
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="72"/>
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="159" t="s">
+      <c r="C14" s="167"/>
+      <c r="D14" s="166" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159" t="s">
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="184" t="s">
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-      <c r="N14" s="177"/>
-      <c r="O14" s="176" t="s">
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="169" t="s">
         <v>107</v>
       </c>
-      <c r="P14" s="193"/>
-      <c r="Q14" s="194"/>
-      <c r="R14" s="183" t="s">
+      <c r="P14" s="196"/>
+      <c r="Q14" s="197"/>
+      <c r="R14" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="184"/>
-      <c r="T14" s="184"/>
-      <c r="U14" s="184"/>
-      <c r="V14" s="184"/>
-      <c r="W14" s="184"/>
-      <c r="X14" s="184"/>
-      <c r="Y14" s="184"/>
-      <c r="Z14" s="184"/>
-      <c r="AA14" s="177"/>
+      <c r="S14" s="163"/>
+      <c r="T14" s="163"/>
+      <c r="U14" s="163"/>
+      <c r="V14" s="163"/>
+      <c r="W14" s="163"/>
+      <c r="X14" s="163"/>
+      <c r="Y14" s="163"/>
+      <c r="Z14" s="163"/>
+      <c r="AA14" s="167"/>
       <c r="AB14" s="91"/>
       <c r="AC14" s="115"/>
       <c r="AD14" s="82"/>
@@ -13603,32 +13621,32 @@
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="72"/>
-      <c r="B15" s="176" t="s">
+      <c r="B15" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="183" t="s">
+      <c r="C15" s="167"/>
+      <c r="D15" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="184"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="180">
+      <c r="E15" s="163"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="172">
         <v>666</v>
       </c>
-      <c r="H15" s="191"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="184" t="s">
+      <c r="H15" s="194"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="184"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="177"/>
-      <c r="O15" s="195" t="s">
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="167"/>
+      <c r="O15" s="198" t="s">
         <v>108</v>
       </c>
-      <c r="P15" s="178"/>
-      <c r="Q15" s="179"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="171"/>
       <c r="R15" s="94" t="s">
         <v>94</v>
       </c>
@@ -14624,6 +14642,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="Y7:AB7"/>
     <mergeCell ref="R14:AA14"/>
     <mergeCell ref="X9:Y9"/>
@@ -14634,21 +14667,6 @@
     <mergeCell ref="J15:N15"/>
     <mergeCell ref="O14:Q14"/>
     <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14679,172 +14697,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="172"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="173" t="s">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="173" t="s">
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="175"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="180"/>
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="181"/>
       <c r="AD2" s="59" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="60"/>
-      <c r="AF2" s="173" t="s">
+      <c r="AF2" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="175"/>
+      <c r="AG2" s="181"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="160" t="str">
+      <c r="A3" s="174" t="str">
         <f>表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="160">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="174">
         <f>表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="166" t="str">
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="184" t="str">
         <f>表紙!M12</f>
         <v xml:space="preserve">在庫登録（画面）/　在庫更新（画面）
 </v>
       </c>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="160" t="str">
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
+      <c r="U3" s="185"/>
+      <c r="V3" s="185"/>
+      <c r="W3" s="185"/>
+      <c r="X3" s="185"/>
+      <c r="Y3" s="185"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="185"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="186"/>
+      <c r="AD3" s="174" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="160" t="str">
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="174" t="str">
         <f>表紙!AD12</f>
         <v>張</v>
       </c>
-      <c r="AG3" s="162"/>
+      <c r="AG3" s="175"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="163"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="170"/>
-      <c r="V4" s="170"/>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="170"/>
-      <c r="AA4" s="170"/>
-      <c r="AB4" s="170"/>
-      <c r="AC4" s="171"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="165"/>
+      <c r="A4" s="176"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="188"/>
+      <c r="R4" s="188"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="188"/>
+      <c r="U4" s="188"/>
+      <c r="V4" s="188"/>
+      <c r="W4" s="188"/>
+      <c r="X4" s="188"/>
+      <c r="Y4" s="188"/>
+      <c r="Z4" s="188"/>
+      <c r="AA4" s="188"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="189"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="177"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="177"/>
     </row>
     <row r="5" spans="1:177" s="68" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="61"/>
@@ -15124,11 +15142,11 @@
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="F9" s="78"/>
-      <c r="G9" s="189" t="s">
+      <c r="G9" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
       <c r="K9" s="74" t="s">
         <v>88</v>
       </c>
@@ -15187,11 +15205,11 @@
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="F11" s="78"/>
-      <c r="G11" s="190" t="s">
+      <c r="G11" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="191"/>
       <c r="K11" s="74" t="s">
         <v>89</v>
       </c>
@@ -15251,18 +15269,18 @@
       <c r="B13" s="73"/>
       <c r="E13" s="78"/>
       <c r="F13" s="81"/>
-      <c r="G13" s="189" t="s">
+      <c r="G13" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="188"/>
+      <c r="H13" s="191"/>
       <c r="I13" s="79"/>
-      <c r="K13" s="180">
+      <c r="K13" s="172">
         <v>666666666</v>
       </c>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="191"/>
-      <c r="O13" s="192"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="195"/>
       <c r="S13" s="73"/>
       <c r="T13" s="73"/>
       <c r="U13" s="73"/>
@@ -15317,11 +15335,11 @@
       <c r="D15" s="73"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
-      <c r="G15" s="189" t="s">
+      <c r="G15" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
       <c r="K15" s="74" t="s">
         <v>110</v>
       </c>
@@ -15389,18 +15407,18 @@
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
-      <c r="G17" s="189" t="s">
+      <c r="G17" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="188"/>
+      <c r="H17" s="191"/>
       <c r="I17" s="79"/>
-      <c r="K17" s="180">
+      <c r="K17" s="172">
         <v>99999</v>
       </c>
-      <c r="L17" s="191"/>
-      <c r="M17" s="191"/>
-      <c r="N17" s="191"/>
-      <c r="O17" s="192"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="195"/>
       <c r="P17" s="73"/>
       <c r="Q17" s="73"/>
       <c r="R17" s="73"/>
@@ -15462,23 +15480,23 @@
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
-      <c r="G19" s="190" t="s">
+      <c r="G19" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="188"/>
+      <c r="H19" s="191"/>
       <c r="I19" s="79"/>
-      <c r="K19" s="198" t="s">
+      <c r="K19" s="201" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="199"/>
-      <c r="M19" s="199"/>
-      <c r="N19" s="199"/>
-      <c r="O19" s="199"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="199"/>
-      <c r="R19" s="199"/>
-      <c r="S19" s="199"/>
-      <c r="T19" s="200"/>
+      <c r="L19" s="202"/>
+      <c r="M19" s="202"/>
+      <c r="N19" s="202"/>
+      <c r="O19" s="202"/>
+      <c r="P19" s="202"/>
+      <c r="Q19" s="202"/>
+      <c r="R19" s="202"/>
+      <c r="S19" s="202"/>
+      <c r="T19" s="203"/>
       <c r="U19" s="73"/>
       <c r="V19" s="84"/>
       <c r="W19" s="73"/>
@@ -15568,15 +15586,15 @@
       <c r="F22" s="73"/>
       <c r="G22" s="79"/>
       <c r="H22" s="79"/>
-      <c r="I22" s="182" t="s">
+      <c r="I22" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="J22" s="182"/>
+      <c r="J22" s="161"/>
       <c r="K22" s="73"/>
-      <c r="L22" s="196" t="s">
+      <c r="L22" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="M22" s="197"/>
+      <c r="M22" s="200"/>
       <c r="N22" s="73"/>
       <c r="O22" s="73"/>
       <c r="S22" s="84"/>
@@ -16350,14 +16368,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="K19:T19"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G13:H13"/>
@@ -16371,6 +16381,14 @@
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="K19:T19"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -16469,7 +16487,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="201" t="s">
+      <c r="A7" s="204" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -16487,7 +16505,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="202"/>
+      <c r="A8" s="205"/>
       <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
